--- a/observations/observer_list.xlsx
+++ b/observations/observer_list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliu\OneDrive\天文所\興趣\2024 ASROC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliu\Github\YHLin-Altair1999.github.io\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{75694A77-8AC7-4F42-9F8C-30DD1FBB5D5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{EB8B1259-E8BB-4EE6-9C4C-7AC62127728D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5650CE-2923-4084-8742-72DA5B8E1310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Yen-Hsing Lin</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>National Museum of Natural Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shun-Chia Yang</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -624,6 +628,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/observations/observer_list.xlsx
+++ b/observations/observer_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliu\Github\YHLin-Altair1999.github.io\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5650CE-2923-4084-8742-72DA5B8E1310}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F3E34-76E4-47A9-91B7-6CB02F784C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Yen-Hsing Lin</t>
   </si>
@@ -133,6 +133,14 @@
   </si>
   <si>
     <t>Shun-Chia Yang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chi-Yun Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Space Science &amp; Engineering, National Central University</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -636,6 +644,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/observations/observer_list.xlsx
+++ b/observations/observer_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juliu\Github\YHLin-Altair1999.github.io\observations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029F3E34-76E4-47A9-91B7-6CB02F784C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BEB1FC-AA46-404B-B9B0-90C365625CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Yen-Hsing Lin</t>
   </si>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>Department of Space Science &amp; Engineering, National Central University</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bing-Cheng Chiang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department of Electrical and Computer Engineering, University of California San Diego</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
@@ -655,6 +663,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
